--- a/www.eia.gov/electricity/monthly/xls/table_2_13_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_13_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Table 2.13.A. Consumption of Biogenic Municipal Solid Waste for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Thousand Tons)</t>
+    <t>November 2016 and November 2015 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,13 +1356,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C6" s="13">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.09</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="13">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H6" s="13">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I6" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C7" s="16">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D7" s="17">
-        <v>-3.3000000000000002E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H7" s="16">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.23</v>
+        <v>-0.12</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>16</v>
       </c>
       <c r="H8" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="16">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C9" s="16">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D9" s="17">
-        <v>-8.4000000000000005E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H9" s="16">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1507,14 +1507,14 @@
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
+      <c r="B10" s="16">
+        <v>9</v>
       </c>
       <c r="C10" s="16">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
+      <c r="D10" s="17">
+        <v>-0.18</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
@@ -1522,8 +1522,8 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>16</v>
+      <c r="G10" s="16">
+        <v>9</v>
       </c>
       <c r="H10" s="16">
         <v>11</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="13">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C13" s="13">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D13" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H13" s="13">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I13" s="13">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J13" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="16">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="17">
-        <v>-0.1</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="16">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I14" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14" s="16">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C15" s="16">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.11</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H15" s="16">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I15" s="16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J15" s="16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K15" s="16">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="16">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C16" s="16">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D16" s="17">
-        <v>-2.4E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="16">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I16" s="16">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J16" s="16">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K16" s="16">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.12</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="13">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.3</v>
+        <v>-0.21</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="17">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="E20" s="16">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="17">
-        <v>-6.7000000000000004E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E22" s="16">
         <v>3</v>
@@ -2002,28 +2002,28 @@
         <v>32</v>
       </c>
       <c r="B23" s="13">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="13">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.11</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="13">
-        <v>34</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="G23" s="13">
+        <v>15</v>
       </c>
       <c r="H23" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="13">
         <v>2</v>
@@ -2116,28 +2116,28 @@
         <v>35</v>
       </c>
       <c r="B26" s="16">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="16">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="17">
-        <v>-0.11</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" s="16">
-        <v>34</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="G26" s="16">
+        <v>15</v>
       </c>
       <c r="H26" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="16">
         <v>2</v>
@@ -2306,13 +2306,13 @@
         <v>40</v>
       </c>
       <c r="B31" s="13">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="C31" s="13">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="E31" s="13">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="13">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="H31" s="13">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="I31" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J31" s="13">
         <v>34</v>
@@ -2420,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="16">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C34" s="16">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.15</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H34" s="16">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C36" s="16">
         <v>69</v>
       </c>
       <c r="D36" s="17">
-        <v>-0.18</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H36" s="16">
         <v>69</v>
@@ -2610,13 +2610,13 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C39" s="16">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D39" s="17">
-        <v>-2.1999999999999999E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E39" s="16">
         <v>0</v>
@@ -2625,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="16">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H39" s="16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I39" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J39" s="16">
         <v>34</v>
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="C46" s="13">
         <v>1</v>
       </c>
       <c r="D46" s="14">
-        <v>0.14000000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="L46" s="13">
         <v>1</v>
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="B49" s="16">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="C49" s="16">
         <v>1</v>
       </c>
       <c r="D49" s="17">
-        <v>0.14000000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="L49" s="16">
         <v>1</v>
@@ -3065,14 +3065,14 @@
       <c r="A51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>16</v>
+      <c r="B51" s="13">
+        <v>0.13</v>
       </c>
       <c r="C51" s="13">
         <v>0.18</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>16</v>
+      <c r="D51" s="14">
+        <v>-0.27</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3080,8 +3080,8 @@
       <c r="F51" s="13">
         <v>0</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>16</v>
+      <c r="G51" s="13">
+        <v>0.13</v>
       </c>
       <c r="H51" s="13">
         <v>0.18</v>
@@ -3331,14 +3331,14 @@
       <c r="A58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>16</v>
+      <c r="B58" s="16">
+        <v>0.13</v>
       </c>
       <c r="C58" s="16">
         <v>0.18</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>16</v>
+      <c r="D58" s="17">
+        <v>-0.27</v>
       </c>
       <c r="E58" s="16">
         <v>0</v>
@@ -3346,8 +3346,8 @@
       <c r="F58" s="16">
         <v>0</v>
       </c>
-      <c r="G58" s="16" t="s">
-        <v>16</v>
+      <c r="G58" s="16">
+        <v>0.13</v>
       </c>
       <c r="H58" s="16">
         <v>0.18</v>
@@ -3408,13 +3408,13 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C60" s="13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="13">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H60" s="13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3446,25 +3446,25 @@
         <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C61" s="16">
+        <v>43</v>
+      </c>
+      <c r="D61" s="17">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16">
         <v>41</v>
       </c>
-      <c r="D61" s="17">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="E61" s="16">
-        <v>0</v>
-      </c>
-      <c r="F61" s="16">
-        <v>0</v>
-      </c>
-      <c r="G61" s="16">
-        <v>39</v>
-      </c>
       <c r="H61" s="16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>16</v>
@@ -3502,7 +3502,7 @@
         <v>16</v>
       </c>
       <c r="H62" s="16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -3521,14 +3521,14 @@
       <c r="A63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>16</v>
+      <c r="B63" s="16">
+        <v>11</v>
       </c>
       <c r="C63" s="16">
-        <v>14</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D63" s="17">
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E63" s="16">
         <v>0</v>
@@ -3536,11 +3536,11 @@
       <c r="F63" s="16">
         <v>0</v>
       </c>
-      <c r="G63" s="16" t="s">
-        <v>16</v>
+      <c r="G63" s="16">
+        <v>11</v>
       </c>
       <c r="H63" s="16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="B64" s="13">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C64" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D64" s="14">
-        <v>0.68</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="13">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J64" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K64" s="13">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>75</v>
       </c>
       <c r="B66" s="16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C66" s="16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D66" s="17">
-        <v>0.68</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J66" s="16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K66" s="16">
         <v>0</v>
@@ -3674,34 +3674,34 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>1260</v>
+        <v>1294</v>
       </c>
       <c r="C67" s="13">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="D67" s="14">
-        <v>-8.8999999999999996E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F67" s="13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G67" s="13">
-        <v>1043</v>
+        <v>1069</v>
       </c>
       <c r="H67" s="13">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="I67" s="13">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J67" s="13">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K67" s="13">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="L67" s="13">
         <v>1</v>
